--- a/ProjectSpec.xlsx
+++ b/ProjectSpec.xlsx
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>전체 Flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +81,18 @@
   </si>
   <si>
     <t>포트폴리오 생성로직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 로그인 이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 추가정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -826,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -837,29 +845,29 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="O2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2"/>
       <c r="F3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2"/>
       <c r="J3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K3" s="2"/>
       <c r="O3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -870,83 +878,89 @@
       <c r="J4" s="3"/>
       <c r="K4" s="4"/>
       <c r="O4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="O8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
       <c r="G9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="2"/>
       <c r="O9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
       <c r="O10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="D16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.4">
       <c r="D24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J3:K4"/>
     <mergeCell ref="G9:H10"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="F3:G4"/>
     <mergeCell ref="D16:E17"/>
     <mergeCell ref="D24:E25"/>
-    <mergeCell ref="J3:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectSpec.xlsx
+++ b/ProjectSpec.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Flow" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>추가정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,51 +44,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자정보 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자정보 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자정보 삭제(탈퇴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증로직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 이메일 + 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소셜로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프링시큐리티?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포트폴리오 생성로직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 로그인 이메일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2. 추가정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면별 개발사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-화면 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 소셜로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 사용자정보 입력, 수정, 조회, 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 자기소개, 기술경력 등등 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 양식 고르는 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portfolio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고른 양식에 사용자정보 값 불러와서 채워넣어줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF 출력 가능하도록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,16 +127,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -176,22 +203,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -215,13 +306,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>480060</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -262,13 +353,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>472440</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
@@ -309,13 +400,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
@@ -356,13 +447,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>198120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -403,13 +494,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>198120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>198120</xdr:rowOff>
@@ -450,13 +541,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>624840</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -497,13 +588,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
@@ -832,135 +923,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O25"/>
+  <dimension ref="B1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.296875" customWidth="1"/>
+    <col min="1" max="2" width="3.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
+    <row r="1" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
+      <c r="P2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="17"/>
+    </row>
+    <row r="3" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="9"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="20"/>
+    </row>
+    <row r="4" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="5"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9"/>
+      <c r="P4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B5" s="5"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="9"/>
+      <c r="P5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B6" s="5"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B7" s="5"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="9"/>
+      <c r="P7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="5"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="9"/>
+      <c r="P8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B9" s="5"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="5"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="9"/>
+      <c r="P10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9"/>
+      <c r="P11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B12" s="5"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9"/>
+      <c r="P12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="O2" t="s">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B13" s="5"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
+      <c r="P14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="5"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9"/>
+      <c r="P15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B16" s="5"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="5"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="J3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="O3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
-      <c r="O4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="O8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="O9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="O10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O12" t="s">
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="9"/>
+      <c r="P17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B18" s="5"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="9"/>
+      <c r="P18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B19" s="5"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="9"/>
+      <c r="P19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B20" s="5"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B21" s="5"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B22" s="5"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="5"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B24" s="5"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="D16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="5"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="D24:E25"/>
+  <mergeCells count="7">
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="P2:U3"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="E16:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectSpec.xlsx
+++ b/ProjectSpec.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Flow" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Flow!$A$1:$AJ$48</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,46 +31,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>portfolio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 로그인 이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 추가정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화면별 개발사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-화면 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 소셜로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,23 +59,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포트폴리오 양식 고르는 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>portfolio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고른 양식에 사용자정보 값 불러와서 채워넣어줌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PDF 출력 가능하도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Security로 로그인 여부 상시 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portfolio1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portfolio3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portfolio2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portfolio4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ 최초 로그인 시 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWS EC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 호스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWS RDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- MariaDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(DB입출력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- DB 출력 : 사용자 정보 가져와서 뿌려줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- PDF로 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 개발 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양식마다 코딩해서 레이아웃 잡아놓기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 개인정보처리방침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 프로젝트 소개, 개발한 사람 소개 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자정보 값 불러와서 채워넣어줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- DB I/O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 최초 성공 / 로그인 성공 / 로그인 실패에 따라 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 디자인 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portfolio 화면에서 사용자가 커스텀하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 배경색이라든지 레이아웃 모양이라든지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portfolio 화면에서 DB에서 불러온 값을 또 수정할 수 있게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portfolio 임시 저장 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만든 portfolio 조회 / 불러오기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +219,43 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -151,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -239,50 +359,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -306,16 +538,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>71718</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -323,9 +555,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1706880" y="678180"/>
-          <a:ext cx="1036320" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="3263153" y="1651747"/>
+          <a:ext cx="1516828" cy="1163171"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -353,26 +585,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>367554</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>385484</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="직선 화살표 연결선 5"/>
+        <xdr:cNvPr id="9" name="직선 화살표 연결선 8"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2065020" y="769620"/>
-          <a:ext cx="83820" cy="2430780"/>
+        <a:xfrm flipV="1">
+          <a:off x="4231342" y="5459506"/>
+          <a:ext cx="17930" cy="636494"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -400,26 +632,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>62755</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="직선 화살표 연결선 8"/>
+        <xdr:cNvPr id="12" name="직선 화살표 연결선 11"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2125980" y="3939540"/>
-          <a:ext cx="30480" cy="982980"/>
+        <a:xfrm flipH="1">
+          <a:off x="3908612" y="5522259"/>
+          <a:ext cx="17931" cy="600635"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -447,26 +679,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>226360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>124162</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="직선 화살표 연결선 11"/>
+        <xdr:cNvPr id="15" name="직선 화살표 연결선 14"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2529840" y="868680"/>
-          <a:ext cx="152400" cy="4259580"/>
+        <a:xfrm flipV="1">
+          <a:off x="6642848" y="1373842"/>
+          <a:ext cx="1531620" cy="96370"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -495,25 +727,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:colOff>322730</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71719</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="직선 화살표 연결선 14"/>
+        <xdr:cNvPr id="20" name="직선 화살표 연결선 19"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4457700" y="647700"/>
-          <a:ext cx="1036320" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="4616823" y="5656729"/>
+          <a:ext cx="914401" cy="1281955"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -541,26 +773,138 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19423</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>126252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>387722</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>93381</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="정육면체 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13583023" y="634252"/>
+          <a:ext cx="1041399" cy="1199029"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>546847</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="원통 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13626353" y="4889500"/>
+          <a:ext cx="1157194" cy="1284195"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>197224</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>24654</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="직선 화살표 연결선 18"/>
+        <xdr:cNvPr id="32" name="직선 화살표 연결선 31"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="876300" y="853440"/>
-          <a:ext cx="3116580" cy="1127760"/>
+        <a:xfrm flipV="1">
+          <a:off x="3388659" y="2626659"/>
+          <a:ext cx="1461247" cy="643219"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -588,26 +932,73 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>286871</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>421341</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="직선 화살표 연결선 20"/>
+        <xdr:cNvPr id="35" name="직선 화살표 연결선 34"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="579120" y="838200"/>
-          <a:ext cx="3154680" cy="1219200"/>
+        <a:xfrm flipV="1">
+          <a:off x="3478306" y="3379694"/>
+          <a:ext cx="1479176" cy="132231"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>206188</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="직선 화살표 연결선 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343835" y="3646396"/>
+          <a:ext cx="1398494" cy="575981"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -923,452 +1314,992 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U26"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AG42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI28" sqref="AI28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="3.296875" customWidth="1"/>
+    <col min="1" max="2" width="3.296875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="11" customWidth="1"/>
+    <col min="4" max="12" width="8.796875" style="11"/>
+    <col min="13" max="13" width="10.796875" style="11" customWidth="1"/>
+    <col min="14" max="14" width="4.3984375" style="11" customWidth="1"/>
+    <col min="15" max="17" width="8.796875" style="11"/>
+    <col min="18" max="18" width="8.796875" style="11" customWidth="1"/>
+    <col min="19" max="19" width="8.796875" style="11"/>
+    <col min="20" max="20" width="4.3984375" style="11" customWidth="1"/>
+    <col min="21" max="21" width="6.3984375" style="11" customWidth="1"/>
+    <col min="22" max="22" width="5" style="11" customWidth="1"/>
+    <col min="23" max="23" width="3.5" style="11" customWidth="1"/>
+    <col min="24" max="27" width="8.796875" style="11"/>
+    <col min="28" max="33" width="8.796875" style="32"/>
+    <col min="34" max="36" width="8.796875" style="11"/>
+    <col min="37" max="37" width="8.796875" style="11" customWidth="1"/>
+    <col min="38" max="16384" width="8.796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="4"/>
-      <c r="P2" s="15" t="s">
+    <row r="1" spans="2:33" ht="21.6" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="3"/>
+      <c r="AB2" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="41"/>
+    </row>
+    <row r="3" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="6"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="44"/>
+    </row>
+    <row r="4" spans="2:33" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="6"/>
+      <c r="AB4" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="6"/>
+      <c r="AB5" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="36"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="6"/>
+    </row>
+    <row r="7" spans="2:33" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="17"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="6"/>
+      <c r="AB7" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="17"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="6"/>
+      <c r="AB8" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="17"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="6"/>
+      <c r="Y9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB9" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="6"/>
+      <c r="Y10" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="36"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="6"/>
+      <c r="AB11" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="36"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="6"/>
+      <c r="AB12" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="6"/>
+      <c r="AB13" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="17"/>
-    </row>
-    <row r="3" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="6"/>
+      <c r="AB14" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="6"/>
+      <c r="AB15" s="34"/>
+    </row>
+    <row r="16" spans="2:33" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="6" t="s">
+      <c r="F16" s="36"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="6"/>
+      <c r="AB16" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="9"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="20"/>
-    </row>
-    <row r="4" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="5"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="9"/>
-      <c r="P4" t="s">
+    </row>
+    <row r="17" spans="2:33" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="36"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="6"/>
+      <c r="AB17" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B5" s="5"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="9"/>
-      <c r="P5" s="1" t="s">
+    <row r="18" spans="2:33" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="6"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="6"/>
+      <c r="AB19" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="6"/>
+      <c r="AB20" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="6"/>
+      <c r="AB21" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B6" s="5"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="9"/>
-      <c r="P7" t="s">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="36"/>
+      <c r="L22" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="6"/>
+      <c r="AB22" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="6"/>
+      <c r="AB23" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="6"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="6"/>
+      <c r="Y25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB25" s="33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="9"/>
-      <c r="P8" s="1" t="s">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="6"/>
+      <c r="Y26" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB26" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="6"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="6"/>
+      <c r="AB28" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="I29" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="9"/>
-      <c r="P10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B11" s="5"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="9"/>
-      <c r="P11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B12" s="5"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="9"/>
-      <c r="P12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B13" s="5"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="9"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B14" s="5"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="9"/>
-      <c r="P14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="5"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
-      <c r="P15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="6" t="s">
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="6"/>
+      <c r="AB29" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="6"/>
+    </row>
+    <row r="31" spans="2:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="6"/>
+    </row>
+    <row r="32" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="G32" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="5"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="9"/>
-      <c r="P17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B18" s="5"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="9"/>
-      <c r="P18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B19" s="5"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="9"/>
-      <c r="P19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B20" s="5"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B21" s="5"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B22" s="5"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="5"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B24" s="5"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="9"/>
-    </row>
-    <row r="25" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="5"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="14"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="6"/>
+      <c r="AB32" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC32" s="40"/>
+      <c r="AD32" s="40"/>
+      <c r="AE32" s="40"/>
+      <c r="AF32" s="40"/>
+      <c r="AG32" s="41"/>
+    </row>
+    <row r="33" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="6"/>
+      <c r="AB33" s="42"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="43"/>
+      <c r="AE33" s="43"/>
+      <c r="AF33" s="43"/>
+      <c r="AG33" s="44"/>
+    </row>
+    <row r="34" spans="2:33" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="6"/>
+    </row>
+    <row r="35" spans="2:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="9"/>
+      <c r="AB35" s="32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="AB36" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="AB38" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="AB40" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="AB42" s="34" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="P2:U3"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="H9:I10"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="G3:H4"/>
+  <mergeCells count="12">
+    <mergeCell ref="AB2:AG3"/>
+    <mergeCell ref="AB32:AG33"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="J22:K23"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="J17:K18"/>
+    <mergeCell ref="O6:P7"/>
     <mergeCell ref="E16:F17"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="R11:S12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ProjectSpec.xlsx
+++ b/ProjectSpec.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flow" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Flow!$A$1:$AJ$48</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +189,74 @@
   </si>
   <si>
     <t>만든 portfolio 조회 / 불러오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자정보.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ 추가하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ 추가하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +325,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -271,7 +358,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -439,11 +526,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -487,18 +626,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,6 +643,54 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1319,8 +1494,8 @@
   </sheetPr>
   <dimension ref="B1:AG42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI28" sqref="AI28"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.45"/>
@@ -1368,14 +1543,14 @@
       <c r="U2" s="12"/>
       <c r="V2" s="2"/>
       <c r="W2" s="3"/>
-      <c r="AB2" s="39" t="s">
+      <c r="AB2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="41"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37"/>
     </row>
     <row r="3" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="4"/>
@@ -1400,12 +1575,12 @@
       <c r="U3" s="10"/>
       <c r="V3" s="5"/>
       <c r="W3" s="6"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="44"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="40"/>
     </row>
     <row r="4" spans="2:33" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="4"/>
@@ -1475,15 +1650,15 @@
       <c r="L6" s="5"/>
       <c r="M6" s="10"/>
       <c r="N6" s="26"/>
-      <c r="O6" s="35" t="s">
+      <c r="O6" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="36"/>
+      <c r="P6" s="42"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="35" t="s">
+      <c r="R6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="36"/>
+      <c r="S6" s="42"/>
       <c r="T6" s="27"/>
       <c r="U6" s="18"/>
       <c r="V6" s="5"/>
@@ -1496,18 +1671,18 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="36"/>
+      <c r="K7" s="42"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="38"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="44"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="38"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="44"/>
       <c r="T7" s="27"/>
       <c r="U7" s="18"/>
       <c r="V7" s="5"/>
@@ -1523,8 +1698,8 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="17"/>
@@ -1610,15 +1785,15 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="35" t="s">
+      <c r="O11" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="P11" s="36"/>
+      <c r="P11" s="42"/>
       <c r="Q11" s="24"/>
-      <c r="R11" s="35" t="s">
+      <c r="R11" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="S11" s="36"/>
+      <c r="S11" s="42"/>
       <c r="T11" s="27"/>
       <c r="U11" s="18"/>
       <c r="V11" s="5"/>
@@ -1636,18 +1811,18 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="36"/>
+      <c r="K12" s="42"/>
       <c r="L12" s="30"/>
       <c r="M12" s="5"/>
       <c r="N12" s="17"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="38"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="44"/>
       <c r="Q12" s="24"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="38"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="44"/>
       <c r="T12" s="27"/>
       <c r="U12" s="18"/>
       <c r="V12" s="5"/>
@@ -1665,8 +1840,8 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="44"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="20"/>
@@ -1739,10 +1914,10 @@
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1766,15 +1941,15 @@
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="36"/>
+      <c r="K17" s="42"/>
       <c r="L17" s="30"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -1800,8 +1975,8 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="44"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -1899,10 +2074,10 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="35" t="s">
+      <c r="J22" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="36"/>
+      <c r="K22" s="42"/>
       <c r="L22" s="30" t="s">
         <v>20</v>
       </c>
@@ -1930,8 +2105,8 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="38"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
       <c r="L23" s="5" t="s">
         <v>25</v>
       </c>
@@ -2157,10 +2332,10 @@
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="36"/>
+      <c r="H32" s="42"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -2175,21 +2350,21 @@
       <c r="T32" s="10"/>
       <c r="V32" s="5"/>
       <c r="W32" s="6"/>
-      <c r="AB32" s="39" t="s">
+      <c r="AB32" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="AC32" s="40"/>
-      <c r="AD32" s="40"/>
-      <c r="AE32" s="40"/>
-      <c r="AF32" s="40"/>
-      <c r="AG32" s="41"/>
+      <c r="AC32" s="36"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
+      <c r="AF32" s="36"/>
+      <c r="AG32" s="37"/>
     </row>
     <row r="33" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -2204,12 +2379,12 @@
       <c r="U33" s="10"/>
       <c r="V33" s="5"/>
       <c r="W33" s="6"/>
-      <c r="AB33" s="42"/>
-      <c r="AC33" s="43"/>
-      <c r="AD33" s="43"/>
-      <c r="AE33" s="43"/>
-      <c r="AF33" s="43"/>
-      <c r="AG33" s="44"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="39"/>
+      <c r="AG33" s="40"/>
     </row>
     <row r="34" spans="2:33" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="4"/>
@@ -2284,6 +2459,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="R11:S12"/>
     <mergeCell ref="AB2:AG3"/>
     <mergeCell ref="AB32:AG33"/>
     <mergeCell ref="G32:H33"/>
@@ -2291,15 +2471,194 @@
     <mergeCell ref="J12:K13"/>
     <mergeCell ref="J17:K18"/>
     <mergeCell ref="O6:P7"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="R6:S7"/>
-    <mergeCell ref="O11:P12"/>
-    <mergeCell ref="R11:S12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="47"/>
+    <col min="2" max="2" width="8.796875" style="58"/>
+    <col min="3" max="12" width="8.796875" style="59"/>
+    <col min="13" max="13" width="8.796875" style="60"/>
+    <col min="14" max="16384" width="8.796875" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C2" s="59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" ht="21" x14ac:dyDescent="0.45">
+      <c r="C3" s="61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C4" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C5" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C6" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C7" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C8" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+    </row>
+    <row r="11" spans="3:12" ht="21" x14ac:dyDescent="0.45">
+      <c r="C11" s="61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C12" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C14" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="17" spans="3:12" ht="21" x14ac:dyDescent="0.45">
+      <c r="C17" s="61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C18" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C20" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="G27" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="62"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="F30" s="59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ProjectSpec.xlsx
+++ b/ProjectSpec.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,19 +240,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술스택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>+ 추가하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원탈퇴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -264,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +375,42 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -358,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -578,11 +646,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -626,52 +720,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -689,7 +738,121 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1543,14 +1706,14 @@
       <c r="U2" s="12"/>
       <c r="V2" s="2"/>
       <c r="W2" s="3"/>
-      <c r="AB2" s="35" t="s">
+      <c r="AB2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="53"/>
     </row>
     <row r="3" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="4"/>
@@ -1575,12 +1738,12 @@
       <c r="U3" s="10"/>
       <c r="V3" s="5"/>
       <c r="W3" s="6"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="40"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="56"/>
     </row>
     <row r="4" spans="2:33" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="4"/>
@@ -1650,15 +1813,15 @@
       <c r="L6" s="5"/>
       <c r="M6" s="10"/>
       <c r="N6" s="26"/>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="42"/>
+      <c r="P6" s="48"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="41" t="s">
+      <c r="R6" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="42"/>
+      <c r="S6" s="48"/>
       <c r="T6" s="27"/>
       <c r="U6" s="18"/>
       <c r="V6" s="5"/>
@@ -1671,18 +1834,18 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="42"/>
+      <c r="K7" s="48"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="44"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="50"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="44"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="50"/>
       <c r="T7" s="27"/>
       <c r="U7" s="18"/>
       <c r="V7" s="5"/>
@@ -1698,8 +1861,8 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="50"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="17"/>
@@ -1785,15 +1948,15 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="41" t="s">
+      <c r="O11" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="P11" s="42"/>
+      <c r="P11" s="48"/>
       <c r="Q11" s="24"/>
-      <c r="R11" s="41" t="s">
+      <c r="R11" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="S11" s="42"/>
+      <c r="S11" s="48"/>
       <c r="T11" s="27"/>
       <c r="U11" s="18"/>
       <c r="V11" s="5"/>
@@ -1811,18 +1974,18 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="41" t="s">
+      <c r="J12" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="42"/>
+      <c r="K12" s="48"/>
       <c r="L12" s="30"/>
       <c r="M12" s="5"/>
       <c r="N12" s="17"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="44"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="50"/>
       <c r="Q12" s="24"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="44"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="50"/>
       <c r="T12" s="27"/>
       <c r="U12" s="18"/>
       <c r="V12" s="5"/>
@@ -1840,8 +2003,8 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="44"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="20"/>
@@ -1914,10 +2077,10 @@
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1941,15 +2104,15 @@
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="41" t="s">
+      <c r="J17" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="42"/>
+      <c r="K17" s="48"/>
       <c r="L17" s="30"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -1975,8 +2138,8 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="44"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -2074,10 +2237,10 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="42"/>
+      <c r="K22" s="48"/>
       <c r="L22" s="30" t="s">
         <v>20</v>
       </c>
@@ -2105,8 +2268,8 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50"/>
       <c r="L23" s="5" t="s">
         <v>25</v>
       </c>
@@ -2332,10 +2495,10 @@
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="G32" s="41" t="s">
+      <c r="G32" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="42"/>
+      <c r="H32" s="48"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -2350,21 +2513,21 @@
       <c r="T32" s="10"/>
       <c r="V32" s="5"/>
       <c r="W32" s="6"/>
-      <c r="AB32" s="35" t="s">
+      <c r="AB32" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="36"/>
-      <c r="AG32" s="37"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="53"/>
     </row>
     <row r="33" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="44"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="50"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -2379,12 +2542,12 @@
       <c r="U33" s="10"/>
       <c r="V33" s="5"/>
       <c r="W33" s="6"/>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="39"/>
-      <c r="AF33" s="39"/>
-      <c r="AG33" s="40"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="55"/>
+      <c r="AD33" s="55"/>
+      <c r="AE33" s="55"/>
+      <c r="AF33" s="55"/>
+      <c r="AG33" s="56"/>
     </row>
     <row r="34" spans="2:33" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="4"/>
@@ -2459,11 +2622,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="R6:S7"/>
-    <mergeCell ref="O11:P12"/>
-    <mergeCell ref="R11:S12"/>
     <mergeCell ref="AB2:AG3"/>
     <mergeCell ref="AB32:AG33"/>
     <mergeCell ref="G32:H33"/>
@@ -2471,6 +2629,11 @@
     <mergeCell ref="J12:K13"/>
     <mergeCell ref="J17:K18"/>
     <mergeCell ref="O6:P7"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="R11:S12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2481,181 +2644,244 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M30"/>
+  <dimension ref="B2:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="47"/>
-    <col min="2" max="2" width="8.796875" style="58"/>
-    <col min="3" max="12" width="8.796875" style="59"/>
-    <col min="13" max="13" width="8.796875" style="60"/>
-    <col min="14" max="16384" width="8.796875" style="47"/>
+    <col min="1" max="1" width="8.796875" style="35"/>
+    <col min="2" max="2" width="8.796875" style="43"/>
+    <col min="3" max="12" width="8.796875" style="44"/>
+    <col min="13" max="13" width="8.796875" style="45"/>
+    <col min="14" max="16384" width="8.796875" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="3:12" ht="21" x14ac:dyDescent="0.45">
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="46" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
-    </row>
-    <row r="11" spans="3:12" ht="21" x14ac:dyDescent="0.45">
-      <c r="C11" s="61" t="s">
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+    </row>
+    <row r="14" spans="3:12" ht="21" x14ac:dyDescent="0.45">
+      <c r="C14" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C12" s="59" t="s">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C15" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E15" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="59" t="s">
+      <c r="K15" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="59" t="s">
+      <c r="L15" s="44" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C14" s="45" t="s">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C17" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C20" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-    </row>
-    <row r="17" spans="3:12" ht="21" x14ac:dyDescent="0.45">
-      <c r="C17" s="61" t="s">
+    </row>
+    <row r="22" spans="3:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="64" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C18" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="59" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C20" s="45" t="s">
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="71"/>
+      <c r="I22" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
+      <c r="J22" s="62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C24" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="76"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C25" s="77"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="79"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C26" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="82"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="G27" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="62"/>
+      <c r="C27" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="80"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="82"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C28" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="80"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="82"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="F30" s="59" t="s">
-        <v>58</v>
-      </c>
+      <c r="C30" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="85"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="F32" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="G27:H27"/>
+  <mergeCells count="15">
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C17:L17"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C22:F23"/>
+    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="C24:J25"/>
+    <mergeCell ref="D26:J26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
